--- a/LeSpMV/script/CSR5 Res.xlsx
+++ b/LeSpMV/script/CSR5 Res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究生所有文件\2024\SpMV-predict-model\Suitsparse Result\CSR5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343BA840-6E0F-4A21-81CC-0CCF27043CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C39DA-D5EE-4C0A-997F-7D162991F418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11840" yWindow="2380" windowWidth="13760" windowHeight="10630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5670" uniqueCount="2838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5672" uniqueCount="2839">
   <si>
     <t>Id</t>
   </si>
@@ -8543,6 +8543,9 @@
   </si>
   <si>
     <t>it-2004</t>
+  </si>
+  <si>
+    <t>sk-2005</t>
   </si>
 </sst>
 </file>
@@ -8870,16 +8873,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2834"/>
+  <dimension ref="A1:E2835"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A2817" workbookViewId="0">
+      <selection activeCell="F2827" sqref="F2827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -57061,6 +57064,23 @@
         <v>15.7456</v>
       </c>
     </row>
+    <row r="2835" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2835" s="1">
+        <v>2454</v>
+      </c>
+      <c r="B2835" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C2835" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2835" s="1">
+        <v>456.4289</v>
+      </c>
+      <c r="E2835" s="1">
+        <v>8.5419999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
